--- a/Excel-XLSX/UN-CAY.xlsx
+++ b/Excel-XLSX/UN-CAY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>X6fXQr</t>
+    <t>AuAw09</t>
   </si>
   <si>
     <t>2009</t>
@@ -120,7 +120,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>null</t>
+    <t>-</t>
   </si>
   <si>
     <t>2010</t>
@@ -144,6 +144,123 @@
     <t>4</t>
   </si>
   <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HAI</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>124</t>
   </si>
   <si>
@@ -153,73 +270,22 @@
     <t>MEX</t>
   </si>
   <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>16</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>207</t>
@@ -234,70 +300,25 @@
     <t>52</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>18</t>
+    <t>23</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>92</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>HAI</t>
-  </si>
-  <si>
-    <t>HTI</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>126</t>
+    <t>25</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>73</t>
   </si>
 </sst>
 </file>
@@ -682,7 +703,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -822,8 +843,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>32</v>
+      <c r="V2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -890,8 +911,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>32</v>
+      <c r="V3" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -958,8 +979,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>32</v>
+      <c r="V4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -976,19 +997,19 @@
         <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -1003,7 +1024,7 @@
         <v>31</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>32</v>
@@ -1021,13 +1042,13 @@
         <v>32</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>32</v>
+      <c r="V5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1044,7 +1065,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>38</v>
@@ -1071,7 +1092,7 @@
         <v>31</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>32</v>
@@ -1089,13 +1110,13 @@
         <v>32</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>32</v>
+      <c r="V6" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1109,22 +1130,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -1139,10 +1160,10 @@
         <v>31</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>32</v>
@@ -1162,8 +1183,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>32</v>
+      <c r="V7" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1177,10 +1198,10 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>38</v>
@@ -1207,10 +1228,10 @@
         <v>31</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>32</v>
@@ -1230,8 +1251,8 @@
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>32</v>
+      <c r="V8" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1245,22 +1266,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1275,10 +1296,10 @@
         <v>31</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>32</v>
@@ -1298,8 +1319,8 @@
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>32</v>
+      <c r="V9" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1313,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>38</v>
@@ -1343,10 +1364,10 @@
         <v>31</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>32</v>
@@ -1366,8 +1387,8 @@
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>32</v>
+      <c r="V10" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1381,22 +1402,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1411,10 +1432,10 @@
         <v>31</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>32</v>
@@ -1434,8 +1455,8 @@
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>32</v>
+      <c r="V11" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -1449,10 +1470,10 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>38</v>
@@ -1479,10 +1500,10 @@
         <v>31</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>32</v>
@@ -1502,8 +1523,8 @@
       <c r="U12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>32</v>
+      <c r="V12" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -1517,22 +1538,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -1547,10 +1568,10 @@
         <v>31</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>32</v>
@@ -1585,10 +1606,10 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>38</v>
@@ -1615,10 +1636,10 @@
         <v>31</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>32</v>
@@ -1653,22 +1674,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -1683,7 +1704,7 @@
         <v>31</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>32</v>
@@ -1701,7 +1722,7 @@
         <v>32</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>34</v>
@@ -1721,22 +1742,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -1751,10 +1772,10 @@
         <v>31</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>32</v>
@@ -1769,7 +1790,7 @@
         <v>32</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>34</v>
@@ -1789,22 +1810,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -1819,7 +1840,7 @@
         <v>31</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>32</v>
@@ -1839,11 +1860,11 @@
       <c r="T17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>32</v>
+      <c r="U17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -1857,22 +1878,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -1887,10 +1908,10 @@
         <v>31</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>32</v>
@@ -1910,8 +1931,8 @@
       <c r="U18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>32</v>
+      <c r="V18" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -1925,22 +1946,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -1955,10 +1976,10 @@
         <v>31</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>32</v>
@@ -1975,11 +1996,11 @@
       <c r="T19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>32</v>
+      <c r="U19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -1993,22 +2014,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2023,10 +2044,10 @@
         <v>31</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>32</v>
@@ -2046,8 +2067,8 @@
       <c r="U20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>32</v>
+      <c r="V20" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -2061,22 +2082,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>28</v>
@@ -2091,7 +2112,7 @@
         <v>31</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>32</v>
@@ -2111,11 +2132,11 @@
       <c r="T21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>32</v>
+      <c r="U21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -2129,22 +2150,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2159,10 +2180,10 @@
         <v>31</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>32</v>
@@ -2182,8 +2203,8 @@
       <c r="U22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V22" s="2" t="s">
-        <v>32</v>
+      <c r="V22" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -2197,22 +2218,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2245,13 +2266,13 @@
         <v>32</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>32</v>
+        <v>32</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -2265,22 +2286,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>28</v>
@@ -2313,12 +2334,216 @@
         <v>32</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-CAY.xlsx
+++ b/Excel-XLSX/UN-CAY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>AuAw09</t>
+    <t>K5jvPY</t>
   </si>
   <si>
     <t>2009</t>
@@ -234,7 +234,10 @@
     <t>2023</t>
   </si>
   <si>
-    <t>246</t>
+    <t>49</t>
+  </si>
+  <si>
+    <t>93</t>
   </si>
   <si>
     <t>81</t>
@@ -255,9 +258,6 @@
     <t>15</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
@@ -316,9 +316,6 @@
   </si>
   <si>
     <t>26</t>
-  </si>
-  <si>
-    <t>73</t>
   </si>
 </sst>
 </file>
@@ -843,8 +840,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -911,8 +908,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -979,8 +976,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1047,8 +1044,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>34</v>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1115,8 +1112,8 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>34</v>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1183,8 +1180,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>34</v>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1251,8 +1248,8 @@
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>34</v>
+      <c r="V8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1319,8 +1316,8 @@
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>34</v>
+      <c r="V9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1387,8 +1384,8 @@
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>34</v>
+      <c r="V10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1455,8 +1452,8 @@
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>34</v>
+      <c r="V11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -1523,8 +1520,8 @@
       <c r="U12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>34</v>
+      <c r="V12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -1636,10 +1633,10 @@
         <v>31</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>32</v>
@@ -1680,16 +1677,16 @@
         <v>68</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -1722,7 +1719,7 @@
         <v>32</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>34</v>
@@ -1742,22 +1739,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -1790,7 +1787,7 @@
         <v>32</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>34</v>
@@ -1863,8 +1860,8 @@
       <c r="U17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>34</v>
+      <c r="V17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -1931,8 +1928,8 @@
       <c r="U18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>34</v>
+      <c r="V18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -1999,8 +1996,8 @@
       <c r="U19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>34</v>
+      <c r="V19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -2067,8 +2064,8 @@
       <c r="U20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>34</v>
+      <c r="V20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -2135,8 +2132,8 @@
       <c r="U21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>34</v>
+      <c r="V21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -2203,8 +2200,8 @@
       <c r="U22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>34</v>
+      <c r="V22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -2271,8 +2268,8 @@
       <c r="U23" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>34</v>
+      <c r="V23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -2339,8 +2336,8 @@
       <c r="U24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>34</v>
+      <c r="V24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -2407,8 +2404,8 @@
       <c r="U25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>34</v>
+      <c r="V25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -2538,7 +2535,7 @@
         <v>32</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>34</v>

--- a/Excel-XLSX/UN-CAY.xlsx
+++ b/Excel-XLSX/UN-CAY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -144,16 +144,34 @@
     <t>4</t>
   </si>
   <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
     <t>2014</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>2015</t>
   </si>
   <si>
-    <t>6</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>2016</t>
@@ -165,7 +183,10 @@
     <t>24</t>
   </si>
   <si>
-    <t>7</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>2017</t>
@@ -174,7 +195,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>8</t>
+    <t>12</t>
   </si>
   <si>
     <t>2018</t>
@@ -186,7 +207,10 @@
     <t>27</t>
   </si>
   <si>
-    <t>9</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>2019</t>
@@ -195,10 +219,22 @@
     <t>34</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>2020</t>
@@ -207,7 +243,13 @@
     <t>38</t>
   </si>
   <si>
-    <t>11</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>2021</t>
@@ -219,7 +261,13 @@
     <t>30</t>
   </si>
   <si>
-    <t>12</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>2022</t>
@@ -231,6 +279,30 @@
     <t>242</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HAI</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
     <t>2023</t>
   </si>
   <si>
@@ -240,82 +312,13 @@
     <t>93</t>
   </si>
   <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>HAI</t>
-  </si>
-  <si>
-    <t>HTI</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>MEX</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>Venezuela (Bolivarian Republic of)</t>
-  </si>
-  <si>
-    <t>VEN</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
-    <t>144</t>
-  </si>
-  <si>
     <t>26</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -700,7 +703,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -994,19 +997,19 @@
         <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -1021,7 +1024,7 @@
         <v>31</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>32</v>
@@ -1039,7 +1042,7 @@
         <v>32</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>34</v>
@@ -1062,7 +1065,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>38</v>
@@ -1089,7 +1092,7 @@
         <v>31</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>32</v>
@@ -1107,7 +1110,7 @@
         <v>32</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>34</v>
@@ -1127,22 +1130,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -1157,10 +1160,10 @@
         <v>31</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>32</v>
@@ -1195,10 +1198,10 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>38</v>
@@ -1225,10 +1228,10 @@
         <v>31</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>32</v>
@@ -1263,22 +1266,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1293,10 +1296,10 @@
         <v>31</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>32</v>
@@ -1331,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>38</v>
@@ -1361,10 +1364,10 @@
         <v>31</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>32</v>
@@ -1399,22 +1402,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1429,10 +1432,10 @@
         <v>31</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>32</v>
@@ -1467,10 +1470,10 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>38</v>
@@ -1497,10 +1500,10 @@
         <v>31</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>32</v>
@@ -1535,22 +1538,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -1565,10 +1568,10 @@
         <v>31</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>32</v>
@@ -1603,10 +1606,10 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>38</v>
@@ -1633,10 +1636,10 @@
         <v>31</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>32</v>
@@ -1671,22 +1674,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -1701,7 +1704,7 @@
         <v>31</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>32</v>
@@ -1719,7 +1722,7 @@
         <v>32</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>34</v>
@@ -1739,22 +1742,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -1769,10 +1772,10 @@
         <v>31</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>32</v>
@@ -1787,7 +1790,7 @@
         <v>32</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>34</v>
@@ -1807,22 +1810,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -1837,7 +1840,7 @@
         <v>31</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>32</v>
@@ -1857,8 +1860,8 @@
       <c r="T17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U17" s="1" t="s">
-        <v>34</v>
+      <c r="U17" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="V17" s="2" t="s">
         <v>32</v>
@@ -1875,22 +1878,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -1905,10 +1908,10 @@
         <v>31</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>32</v>
@@ -1943,22 +1946,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -1973,10 +1976,10 @@
         <v>31</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>32</v>
@@ -1993,8 +1996,8 @@
       <c r="T19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U19" s="1" t="s">
-        <v>34</v>
+      <c r="U19" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="V19" s="2" t="s">
         <v>32</v>
@@ -2011,22 +2014,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2041,10 +2044,10 @@
         <v>31</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>32</v>
@@ -2079,58 +2082,58 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U21" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="V21" s="2" t="s">
         <v>32</v>
@@ -2147,22 +2150,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2177,10 +2180,10 @@
         <v>31</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>32</v>
@@ -2215,58 +2218,58 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="H23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="J23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T23" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>93</v>
+      <c r="U23" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="V23" s="2" t="s">
         <v>32</v>
@@ -2283,58 +2286,58 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>95</v>
+      <c r="U24" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="V24" s="2" t="s">
         <v>32</v>
@@ -2351,22 +2354,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2381,10 +2384,10 @@
         <v>31</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>32</v>
@@ -2401,8 +2404,8 @@
       <c r="T25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U25" s="2" t="s">
-        <v>96</v>
+      <c r="U25" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>32</v>
@@ -2419,55 +2422,55 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="J26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T26" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>34</v>
@@ -2490,19 +2493,19 @@
         <v>99</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>28</v>
@@ -2535,12 +2538,216 @@
         <v>32</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V27" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V30" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-CAY.xlsx
+++ b/Excel-XLSX/UN-CAY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>K5jvPY</t>
+    <t>H3gNzy</t>
   </si>
   <si>
     <t>2009</t>
@@ -319,6 +319,15 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>58</t>
   </si>
 </sst>
 </file>
@@ -2588,10 +2597,10 @@
         <v>31</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>32</v>
@@ -2674,7 +2683,7 @@
         <v>32</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>34</v>
@@ -2742,7 +2751,7 @@
         <v>32</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>34</v>
